--- a/Datasets/colllectivebargainingcoverage.xlsx
+++ b/Datasets/colllectivebargainingcoverage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacopobinati/Desktop/thesis/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853A78C-75C2-DE43-86EA-E2AE950501BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE5BEF-2A17-2046-8722-C7441F6027BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
